--- a/data_driven/data.xlsx
+++ b/data_driven/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14180" windowHeight="3670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14080" windowHeight="3670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>userName</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>P@ssw0rd</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>user</t>
   </si>
 </sst>
 </file>
@@ -365,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -391,6 +397,22 @@
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
